--- a/api/mxik-codes.xlsx
+++ b/api/mxik-codes.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,120 +422,122 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Аксессуары для умного дома</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Aksessuarlar</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>mxik code</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>package code</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Камера</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Foto va video</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>602</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Камера</t>
+          <t>Флешки</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Foto va video</t>
+          <t>Audiotexnika</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>600</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Флешки</t>
+          <t>USB HUB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Audiotexnika</t>
+          <t>Televizorlar va raqamli TV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>USB HUB</t>
+          <t>Игравое кресло</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Televizorlar va raqamli TV</t>
+          <t>Мебель</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Игравое кресло</t>
+          <t>Офисное кресло</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -557,147 +547,147 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Офисное кресло</t>
+          <t>Пожарный извещатель</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Мебель</t>
+          <t>Uy uchun texnika</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Пожарный извещатель</t>
+          <t>Часы</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Uy uchun texnika</t>
+          <t>Smartfonlar va gadjetlar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>568</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Часы</t>
+          <t>Видеонаблюдение</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Smartfonlar va gadjetlar</t>
+          <t>Aqilli uy</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Видеонаблюдение</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aqilli uy</t>
+          <t>O'yinlar va dasturiy ta'minot</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>1csdd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O'yinlar va dasturiy ta'minot</t>
+          <t>vfvdf</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>212</t>
         </is>
       </c>
     </row>
